--- a/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5658,7 +5659,6 @@
           <t>东吴移动互联灵活配置混合C</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>93.58</t>
@@ -5674,6 +5674,818 @@
       </c>
       <c r="H41" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>199.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.2391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4913</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6491,4 +6492,2186 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.9562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>259.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.7171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6973</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4758</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8674,4 +8675,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8683,7 +8684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8694,17 +8695,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8714,14 +8735,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.67</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.0338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8730,14 +8773,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.51</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>321.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.9512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8746,14 +8811,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.66</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>224.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8762,13 +8849,3001 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>125.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7313</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2170</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0789</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9546</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7890</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5643</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5459</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>67.41</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>95</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>40.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11742,7 +11743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11753,17 +11754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11773,14 +11794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.48999999999999</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.5916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -11789,14 +11832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.67</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>187.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.3629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -11805,14 +11870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.51</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>185.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11821,14 +11908,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.66</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2686</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -11837,13 +11946,3055 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2602</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0588</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7240</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2484</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1273</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0896</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9323</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8753</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4392</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>95</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>40.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14877,7 +14878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14888,17 +14889,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14908,14 +14929,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.18</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.6577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -14924,14 +14967,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.48999999999999</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>205.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.9258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14940,14 +15005,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.67</v>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -14956,14 +15043,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.51</v>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3391</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -14972,14 +15081,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29.66</v>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -14988,13 +15119,3069 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2949</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2643</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2579</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2518</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1456</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8474</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8113</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6767</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3090</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014243</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010170</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010171</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>95</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>40.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>62.43</v>
+        <v>35.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>62.18</v>
+        <v>62.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
-        <v>64.48999999999999</v>
+        <v>62.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>43.67</v>
+        <v>64.48999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>31.51</v>
+        <v>43.67</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>29.66</v>
+        <v>31.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>95</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>40.95</v>
       </c>
     </row>
@@ -600,6 +617,2566 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.0445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5708</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014203</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014131</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014204</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014132</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016494</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3769,7 +6346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6903,7 +9480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9961,7 +12538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12143,7 +14720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12955,7 +15532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14524,7 +17101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300073-当升科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>35.47</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>62.43</v>
+        <v>35.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>62.18</v>
+        <v>62.43</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>64.48999999999999</v>
+        <v>62.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>43.67</v>
+        <v>64.48999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>31.51</v>
+        <v>43.67</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>29.66</v>
+        <v>31.51</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3696 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>95</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>40.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>103.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2629</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2545</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1785</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0803</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8354</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7706</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7695</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7633</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7177</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7169</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6127</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5048</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4720</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009547</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安鼎利混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +4300,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>167.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016494</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013383</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>恒生前海高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013384</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>恒生前海高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3176,7 +8431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6346,7 +11601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9480,7 +14735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12538,7 +17793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14720,7 +19975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15532,7 +20787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17099,3670 +22354,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H96"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>农银汇理新能源主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>153.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.3262</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003834</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏能源革新股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>103.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.0962</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001606</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银汇理工业4.0灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.0108</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001156</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信新能源汽车主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>35.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8884</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安安信消费混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>24.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.8005</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2629</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2545</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160325</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>30.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>70.76</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1785</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005939</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>33.65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.0936</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000601</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝创新优选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>23.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.75</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.0803</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>150103</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河银泰混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>15.83</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.0020</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000793</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.8354</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>481015</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7706</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009398</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.7695</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007689</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银新能源混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.7633</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009147</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>建信新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>22.93</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.7177</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003853</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7169</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001166</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信环保产业股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>14.52</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.6127</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005940</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5847</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>410003</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华富成长趋势混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.5187</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519909</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华安安顺灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.5048</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000409</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华环保产业股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>11.47</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4909</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>398051</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中海环保新能源混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>64.20</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4851</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000124</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华宝服务优选混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4720</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>519679</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>银河主题混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.4183</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3246</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007690</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国投瑞银新能源混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3005</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>162208</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>泰达宏利首选企业股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2981</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001704</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国投瑞银进宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2906</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>210008</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>金鹰策略配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2659</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007203</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>银河新动能混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2336</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001951</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>金鹰改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2223</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010135</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000828</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>泰达宏利转型机遇股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2124</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006736</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国投瑞银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.2036</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009092</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>富国新材料新能源混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1785</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>240002</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华宝宝康配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>74.14</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1750</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>162202</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>泰达宏利周期混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1680</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>005885</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1652</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>99.46</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1521</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009547</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华安鼎利混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>64.65</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1493</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004341</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>农银汇理尖端科技灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1387</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002064</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华富产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>86.64</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1347</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006265</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>红土创新新科技股票</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1343</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>519642</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>银河大国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.1209</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>001753</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>红土创新新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.1174</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>040015</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.1102</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005037</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>银华新能源新材料量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.1084</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009189</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华宝成长策略混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0994</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>006392</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>中信保诚创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>88.40</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0972</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>009380</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>富安达科技领航混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0913</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>660015</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>农银行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0910</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>001858</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>建信鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>000209</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>信诚新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0841</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>410007</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华富价值增长混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0767</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>003152</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>005825</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>申万菱信智能驱动股票</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>002213</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>中海顺鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>87.62</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>000547</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>建信健康民生混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>89.71</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>164905</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>交银国证新能源指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0549</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>004925</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>长信低碳环保行业量化股票</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>005341</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>005342</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0415</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>000935</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>浙商汇金转型成长混合</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>87.46</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>005038</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>银华新能源新材料量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>002512</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>长城久润混合</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>007163</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>浦银安盛环保新能源混合A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>580006</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>东吴新经济混合</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>85.94</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>007164</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>浦银安盛环保新能源混合C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>006857</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>74.97</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>010136</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>001709</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>华富物联世界灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>000788</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>前海开源中国成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>003646</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>000822</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>东海美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>003153</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>006486</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>广发中证1000指数A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>006858</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>74.97</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>006487</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>广发中证1000指数C</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>003647</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>